--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H2">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I2">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J2">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>5.047578337597678</v>
+        <v>15.742189058688</v>
       </c>
       <c r="R2">
-        <v>5.047578337597678</v>
+        <v>141.679701528192</v>
       </c>
       <c r="S2">
-        <v>0.1281551571560397</v>
+        <v>0.2489610200892563</v>
       </c>
       <c r="T2">
-        <v>0.1281551571560397</v>
+        <v>0.2489610200892563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H3">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I3">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J3">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>14.6804260602833</v>
+        <v>15.81593769006844</v>
       </c>
       <c r="R3">
-        <v>14.6804260602833</v>
+        <v>142.343439210616</v>
       </c>
       <c r="S3">
-        <v>0.3727277088221752</v>
+        <v>0.2501273467310094</v>
       </c>
       <c r="T3">
-        <v>0.3727277088221752</v>
+        <v>0.2501273467310094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H4">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I4">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J4">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>0.6511876001305545</v>
+        <v>0.7594778762904444</v>
       </c>
       <c r="R4">
-        <v>0.6511876001305545</v>
+        <v>6.835300886614</v>
       </c>
       <c r="S4">
-        <v>0.01653328460723084</v>
+        <v>0.01201106060355303</v>
       </c>
       <c r="T4">
-        <v>0.01653328460723084</v>
+        <v>0.01201106060355303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H5">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I5">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J5">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>4.707776867079344</v>
+        <v>15.058450139904</v>
       </c>
       <c r="R5">
-        <v>4.707776867079344</v>
+        <v>135.526051259136</v>
       </c>
       <c r="S5">
-        <v>0.1195277901408986</v>
+        <v>0.2381477629202196</v>
       </c>
       <c r="T5">
-        <v>0.1195277901408986</v>
+        <v>0.2381477629202196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H6">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I6">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J6">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>13.69214414973566</v>
+        <v>15.12899560752533</v>
       </c>
       <c r="R6">
-        <v>13.69214414973566</v>
+        <v>136.160960467728</v>
       </c>
       <c r="S6">
-        <v>0.3476357904625716</v>
+        <v>0.2392634318730065</v>
       </c>
       <c r="T6">
-        <v>0.3476357904625716</v>
+        <v>0.2392634318730066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H7">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I7">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J7">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>0.6073498448134217</v>
+        <v>0.7264910674013333</v>
       </c>
       <c r="R7">
-        <v>0.6073498448134217</v>
+        <v>6.538419606612</v>
       </c>
       <c r="S7">
-        <v>0.01542026881108393</v>
+        <v>0.01148937778295509</v>
       </c>
       <c r="T7">
-        <v>0.01542026881108393</v>
+        <v>0.01148937778295509</v>
       </c>
     </row>
   </sheetData>
